--- a/piroz_prix.xlsx
+++ b/piroz_prix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilio\OneDrive\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\CMV\GITHUB\Remise-C13\Remise-C13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2C367C-C099-4B0A-9E83-71202C59E5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2A2540-EA27-4FAE-A070-CF607EF81AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{596BAB0C-6BB7-4E62-AE36-2447C4FC4BC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{596BAB0C-6BB7-4E62-AE36-2447C4FC4BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -68,6 +68,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;$&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,8 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -436,15 +441,15 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -470,7 +475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>10</v>
       </c>
@@ -478,15 +483,23 @@
         <f>C3/2</f>
         <v>5</v>
       </c>
-      <c r="E3">
-        <f>D3*D3*3.14</f>
-        <v>78.5</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="1">
+        <f>PI()*POWER(D3,2)*2</f>
+        <v>157.07963267948966</v>
+      </c>
+      <c r="F3" s="2">
         <v>17.25</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H3" s="2">
+        <f>F3/E3</f>
+        <v>0.10981691073340778</v>
+      </c>
+      <c r="I3" s="2">
+        <f>E3/F3</f>
+        <v>9.1060656625791108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>12</v>
       </c>
@@ -494,15 +507,27 @@
         <f t="shared" ref="D4:D7" si="0">C4/2</f>
         <v>6</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E7" si="1">D4*D4*3.14</f>
-        <v>113.04</v>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E7" si="1">PI()*POWER(D4,2)*2</f>
+        <v>226.1946710584651</v>
+      </c>
+      <c r="F4" s="2">
+        <f>F3+G4</f>
+        <v>19.899999999999999</v>
       </c>
       <c r="G4">
         <v>2.65</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H7" si="2">F4/E4</f>
+        <v>8.7977315764686592E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I7" si="3">E4/F4</f>
+        <v>11.366566384847493</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>14</v>
       </c>
@@ -510,15 +535,27 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>153.86000000000001</v>
+        <v>307.8760800517997</v>
+      </c>
+      <c r="F5" s="2">
+        <f>F3+G5</f>
+        <v>25.7</v>
       </c>
       <c r="G5">
         <v>8.4499999999999993</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3475143621667566E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>11.979614009797654</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>16</v>
       </c>
@@ -526,15 +563,27 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>200.96</v>
+        <v>402.12385965949352</v>
+      </c>
+      <c r="F6" s="2">
+        <f>F3+G6</f>
+        <v>31.25</v>
       </c>
       <c r="G6">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>7.7712374556589525E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>12.867963509103793</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>18</v>
       </c>
@@ -542,59 +591,181 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>254.34</v>
+        <v>508.93800988154646</v>
+      </c>
+      <c r="F7" s="2">
+        <f>F3+G7</f>
+        <v>37.5</v>
       </c>
       <c r="G7">
         <v>20.25</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>7.3682844024025626E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>13.571680263507906</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
-      <c r="F9">
+      <c r="D9">
+        <f>C9/2</f>
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <f>PI()*POWER(D3,2)</f>
+        <v>78.539816339744831</v>
+      </c>
+      <c r="F9" s="2">
         <v>11.99</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H9" s="2">
+        <f>F9/E9</f>
+        <v>0.152661421413746</v>
+      </c>
+      <c r="I9" s="2">
+        <f>E9/F9</f>
+        <v>6.5504433978102448</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>12</v>
       </c>
-      <c r="F10">
+      <c r="D10">
+        <f t="shared" ref="D10:D13" si="4">C10/2</f>
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" ref="E10:E13" si="5">PI()*POWER(D4,2)</f>
+        <v>113.09733552923255</v>
+      </c>
+      <c r="F10" s="2">
         <v>14.75</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H10" s="2">
+        <f t="shared" ref="H10:H13" si="6">F10/E10</f>
+        <v>0.13041863392252534</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" ref="I10:I13" si="7">E10/F10</f>
+        <v>7.6676159680835632</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>14</v>
       </c>
-      <c r="F11">
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="5"/>
+        <v>153.93804002589985</v>
+      </c>
+      <c r="F11" s="2">
         <v>17.989999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H11" s="2">
+        <f t="shared" si="6"/>
+        <v>0.11686520107033457</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="7"/>
+        <v>8.5568671498554671</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>16</v>
       </c>
-      <c r="F12">
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="5"/>
+        <v>201.06192982974676</v>
+      </c>
+      <c r="F12" s="2">
         <v>20.99</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H12" s="2">
+        <f t="shared" si="6"/>
+        <v>0.10439569548434009</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="7"/>
+        <v>9.5789390104691172</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>18</v>
       </c>
-      <c r="F13">
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="5"/>
+        <v>254.46900494077323</v>
+      </c>
+      <c r="F13" s="2">
         <v>26.49</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="6"/>
+        <v>0.1040991220371434</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="7"/>
+        <v>9.6062289520865711</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H3:H13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>